--- a/biology/Botanique/Cassipourea_atanganae/Cassipourea_atanganae.xlsx
+++ b/biology/Botanique/Cassipourea_atanganae/Cassipourea_atanganae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassipourea atanganae Kenfack est une espèce de plantes à fleurs de la famille des Rhizophoraceae et du genre Cassipourea. C'est un arbre endémique du Cameroun localisé sur les bords de la rivière Mana, à la limite sud-est du parc national de Korup. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses feuilles ressemblent à celles de Cassipourea afzelii. Toutefois, ses fleurs diffèrent de toutes les autres espèces de Cassipourea par leur ovaire glabre et leur androcée diplostémone à filets en deux longueurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles ressemblent à celles de Cassipourea afzelii. Toutefois, ses fleurs diffèrent de toutes les autres espèces de Cassipourea par leur ovaire glabre et leur androcée diplostémone à filets en deux longueurs.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique atanganae rend hommage à Atanga Ekobo, collaborateur du WWF-Cameroun, pour son investissement dans la conservation
-des forêts côtières du Cameroun[2].
+des forêts côtières du Cameroun.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par son aire de distribution limitée, elle est classée vulnérable selon les critères de l’IUCN[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par son aire de distribution limitée, elle est classée vulnérable selon les critères de l’IUCN.
 </t>
         </is>
       </c>
